--- a/medicine/Enfance/Chantal_Grosléziat/Chantal_Grosléziat.xlsx
+++ b/medicine/Enfance/Chantal_Grosléziat/Chantal_Grosléziat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chantal_Grosl%C3%A9ziat</t>
+          <t>Chantal_Grosléziat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chantal Grosléziat est une musicienne, formatrice, auteure, collecteuse française de musiques pour enfants et de littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chantal_Grosl%C3%A9ziat</t>
+          <t>Chantal_Grosléziat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire d'un DEA en sciences de l'éducation, Chantal Grosléziat mène un travail de collectage, recherche et valorisation des musiques traditionnelles pour enfant dans les différentes cultures du monde. Dans ce cadre, elle a participé au développement d'Enfance et Musique entre 1981 à 1996. Elle a ensuite fondé et est devenue directrice de l'association Musique en herbe. Elle a beaucoup collaboré avec Didier Jeunesse, dans leur collection de livres-disques Comptines du monde[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire d'un DEA en sciences de l'éducation, Chantal Grosléziat mène un travail de collectage, recherche et valorisation des musiques traditionnelles pour enfant dans les différentes cultures du monde. Dans ce cadre, elle a participé au développement d'Enfance et Musique entre 1981 à 1996. Elle a ensuite fondé et est devenue directrice de l'association Musique en herbe. Elle a beaucoup collaboré avec Didier Jeunesse, dans leur collection de livres-disques Comptines du monde.
 </t>
         </is>
       </c>
